--- a/src/main/webapp/schedules/Diphtheria.xlsx
+++ b/src/main/webapp/schedules/Diphtheria.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCH\TCHWorkspaces\iris006-ws\fv\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7533C466-4CC1-471E-8C99-85499DE2A1B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="0" windowWidth="23040" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedules" sheetId="1" r:id="rId1"/>
-    <sheet name="XML" sheetId="2" r:id="rId2"/>
-    <sheet name="Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Temp" sheetId="6" r:id="rId1"/>
+    <sheet name="Schedules" sheetId="1" r:id="rId2"/>
+    <sheet name="XML" sheetId="2" r:id="rId3"/>
+    <sheet name="Test" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$K$358</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Schedules!$A$1:$K$358</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="299">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -41,84 +51,39 @@
     <t>Vaccine</t>
   </si>
   <si>
-    <t>Trade Name(s)</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Child</t>
   </si>
   <si>
-    <t>DT</t>
-  </si>
-  <si>
     <t>DTaP</t>
   </si>
   <si>
     <t>Adult</t>
   </si>
   <si>
-    <t>122, 124, 123</t>
-  </si>
-  <si>
     <t>DTaP-HepB-IPV</t>
   </si>
   <si>
-    <t>Pediarix</t>
-  </si>
-  <si>
     <t>Td</t>
   </si>
   <si>
-    <t>122, 124</t>
-  </si>
-  <si>
     <t>DTaP-Hib</t>
   </si>
   <si>
-    <t>TriHibit</t>
-  </si>
-  <si>
     <t>DTaP-Hib-IPV</t>
   </si>
   <si>
-    <t>Pentacel</t>
-  </si>
-  <si>
     <t>DTaP-IPV</t>
   </si>
   <si>
-    <t>Kinrix</t>
-  </si>
-  <si>
     <t>DTP-Hib</t>
   </si>
   <si>
-    <t>Tetramune</t>
-  </si>
-  <si>
     <t>DTP</t>
   </si>
   <si>
-    <t>Td Preservative free</t>
-  </si>
-  <si>
-    <t>DTP-Hib-HepB</t>
-  </si>
-  <si>
-    <t>DTaP-IPV-Hib-HepB</t>
-  </si>
-  <si>
-    <t>Pentavalente</t>
-  </si>
-  <si>
     <t>Tdap</t>
   </si>
   <si>
-    <t>Boostrix, Adecel</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
@@ -497,16 +462,475 @@
     <t>Patient has not received pertussis vaccine (Tdap) after 7 years of age, Tdap due at 11 years of age.</t>
   </si>
   <si>
-    <t>110, 112, 114, 115, 116, 2060, 111, 2070, 113, 121, 1150, 142, 227</t>
-  </si>
-  <si>
-    <t>Hexavalente</t>
-  </si>
-  <si>
-    <t>DTaP/IPV/Hib (Non-US)</t>
-  </si>
-  <si>
-    <t>123, 110, 114, 113, 115, 116, 121, 142, 227, 2060, 111, 2070</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate PCV 13</t>
+  </si>
+  <si>
+    <t>typhus, historical</t>
+  </si>
+  <si>
+    <t>zoster</t>
+  </si>
+  <si>
+    <t>yellow fever</t>
+  </si>
+  <si>
+    <t>VZIG</t>
+  </si>
+  <si>
+    <t>VEE, unspecified formulation</t>
+  </si>
+  <si>
+    <t>VEE, live</t>
+  </si>
+  <si>
+    <t>VEE, inactivated</t>
+  </si>
+  <si>
+    <t>vaccinia immune globulin</t>
+  </si>
+  <si>
+    <t>typhoid, unspecified formulation</t>
+  </si>
+  <si>
+    <t>typhoid, ViCPs</t>
+  </si>
+  <si>
+    <t>typhoid, parenteral, AKD (U.S. military)</t>
+  </si>
+  <si>
+    <t>typhoid, parenteral</t>
+  </si>
+  <si>
+    <t>typhoid, oral</t>
+  </si>
+  <si>
+    <t>tularemia vaccine</t>
+  </si>
+  <si>
+    <t>TST, unspecified formulation</t>
+  </si>
+  <si>
+    <t>TST-PPD tine test</t>
+  </si>
+  <si>
+    <t>TST-PPD intradermal</t>
+  </si>
+  <si>
+    <t>TST-OT tine test</t>
+  </si>
+  <si>
+    <t>TIG</t>
+  </si>
+  <si>
+    <t>tick-borne encephalitis</t>
+  </si>
+  <si>
+    <t>tetanus toxoid, adsorbed</t>
+  </si>
+  <si>
+    <t>Staphylococcus bacterio lysate</t>
+  </si>
+  <si>
+    <t>vaccinia (smallpox)</t>
+  </si>
+  <si>
+    <t>RSV-MAb</t>
+  </si>
+  <si>
+    <t>RSV-IGIV</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>Rift Valley fever</t>
+  </si>
+  <si>
+    <t>rheumatic fever</t>
+  </si>
+  <si>
+    <t>Q fever</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>pertussis</t>
+  </si>
+  <si>
+    <t>parainfluenza-3</t>
+  </si>
+  <si>
+    <t>melanoma</t>
+  </si>
+  <si>
+    <t>malaria</t>
+  </si>
+  <si>
+    <t>leprosy</t>
+  </si>
+  <si>
+    <t>leishmaniasis</t>
+  </si>
+  <si>
+    <t>Japanese Encephalitis IM</t>
+  </si>
+  <si>
+    <t>Japanese encephalitis SC</t>
+  </si>
+  <si>
+    <t>IG, unspecified formulation</t>
+  </si>
+  <si>
+    <t>IGIV</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>Hib (PRP-OMP)</t>
+  </si>
+  <si>
+    <t>Hib (PRP-T)</t>
+  </si>
+  <si>
+    <t>Hib (HbOC)</t>
+  </si>
+  <si>
+    <t>Hib (PRP-D)</t>
+  </si>
+  <si>
+    <t>herpes simplex 2</t>
+  </si>
+  <si>
+    <t>Hep E</t>
+  </si>
+  <si>
+    <t>Hep B, dialysis</t>
+  </si>
+  <si>
+    <t>Hep B, adult</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent/high risk infant</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent or pediatric</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>HBIG</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 3 dose</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 2 dose</t>
+  </si>
+  <si>
+    <t>Hep A, adult</t>
+  </si>
+  <si>
+    <t>hantavirus</t>
+  </si>
+  <si>
+    <t>DTP-Hib-Hep B</t>
+  </si>
+  <si>
+    <t>diphtheria antitoxin</t>
+  </si>
+  <si>
+    <t>dengue fever</t>
+  </si>
+  <si>
+    <t>CMVIG</t>
+  </si>
+  <si>
+    <t>cholera</t>
+  </si>
+  <si>
+    <t>botulinum antitoxin</t>
+  </si>
+  <si>
+    <t>anthrax</t>
+  </si>
+  <si>
+    <t>adenovirus, unspecified formulation</t>
+  </si>
+  <si>
+    <t>adenovirus, type 7</t>
+  </si>
+  <si>
+    <t>adenovirus, type 4</t>
+  </si>
+  <si>
+    <t>HPV, unspecified formulation</t>
+  </si>
+  <si>
+    <t>HPV, bivalent</t>
+  </si>
+  <si>
+    <t>HPV, quadrivalent</t>
+  </si>
+  <si>
+    <t>meningococcal B, OMV</t>
+  </si>
+  <si>
+    <t>meningococcal B, recombinant</t>
+  </si>
+  <si>
+    <t>HPV9</t>
+  </si>
+  <si>
+    <t>Meningococcal C/Y-HIB PRP</t>
+  </si>
+  <si>
+    <t>rotavirus, unspecified formulation</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>rabies, unspecified formulation</t>
+  </si>
+  <si>
+    <t>rabies, intradermal injection</t>
+  </si>
+  <si>
+    <t>rabies, intramuscular injection</t>
+  </si>
+  <si>
+    <t>Lyme disease</t>
+  </si>
+  <si>
+    <t>rotavirus, tetravalent</t>
+  </si>
+  <si>
+    <t>rotavirus, pentavalent</t>
+  </si>
+  <si>
+    <t>rotavirus, monovalent</t>
+  </si>
+  <si>
+    <t>influenza, injectable, quadrivalent</t>
+  </si>
+  <si>
+    <t>influenza, injectable, quadrivalent, preservative free</t>
+  </si>
+  <si>
+    <t>influenza nasal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>influenza, live, intranasal, quadrivalent</t>
+  </si>
+  <si>
+    <t>influenza, seasonal, intradermal, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, intradermal, quadrivalent, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, seasonal, injectable</t>
+  </si>
+  <si>
+    <t>Influenza, seasonal, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Meningococcal MCV4O</t>
+  </si>
+  <si>
+    <t>meningococcal C conjugate</t>
+  </si>
+  <si>
+    <t>Novel influenza-H1N1-09</t>
+  </si>
+  <si>
+    <t>Novel influenza-H1N1-09, preservative-free</t>
+  </si>
+  <si>
+    <t>Novel Influenza-H1N1-09, nasal</t>
+  </si>
+  <si>
+    <t>Novel Influenza-H1N1-09, all formulations</t>
+  </si>
+  <si>
+    <t>Influenza, high dose seasonal</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4, unspecified formulation</t>
+  </si>
+  <si>
+    <t>meningococcal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4P</t>
+  </si>
+  <si>
+    <t>meningococcal MPSV4</t>
+  </si>
+  <si>
+    <t>influenza, split (incl. purified surface antigen)</t>
+  </si>
+  <si>
+    <t>influenza, live, intranasal</t>
+  </si>
+  <si>
+    <t>Influenza, injectable,quadrivalent, preservative free, pediatric</t>
+  </si>
+  <si>
+    <t>influenza, recombinant, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, unspecified formulation</t>
+  </si>
+  <si>
+    <t>influenza, whole</t>
+  </si>
+  <si>
+    <t>varicella</t>
+  </si>
+  <si>
+    <t>rubella/mumps</t>
+  </si>
+  <si>
+    <t>rubella</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>mumps</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>measles</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>M/R</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>MMRV</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Pneumococcal Conjugate, unspecified formulation</t>
+  </si>
+  <si>
+    <t>pneumococcal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>pneumococcal polysaccharide PPV23</t>
+  </si>
+  <si>
+    <t>pneumococcal conjugate PCV 7</t>
+  </si>
+  <si>
+    <t>polio, unspecified formulation</t>
+  </si>
+  <si>
+    <t>OPV</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>Hep A-Hep B</t>
+  </si>
+  <si>
+    <t>Hep A, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hep A, pediatric, unspecified formulation</t>
+  </si>
+  <si>
+    <t>DTaP,IPV,Hib,HepB</t>
+  </si>
+  <si>
+    <t>DTaP-IPV-HIB-HEP B, historical</t>
+  </si>
+  <si>
+    <t>Hep B, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hib-Hep B</t>
+  </si>
+  <si>
+    <t>Hib, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Td (adult) preservative free</t>
+  </si>
+  <si>
+    <t>Td(adult) unspecified formulation</t>
+  </si>
+  <si>
+    <t>Td (adult)</t>
+  </si>
+  <si>
+    <t>Td (adult), adsorbed</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>DTaP-Hep B-IPV</t>
+  </si>
+  <si>
+    <t>DT (pediatric)</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>DTaP, unspecified formulation</t>
+  </si>
+  <si>
+    <t>DTaP, 5 pertussis antigens</t>
+  </si>
+  <si>
+    <t>CVX Label</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115</t>
+  </si>
+  <si>
+    <t>09, 113, 115</t>
+  </si>
+  <si>
+    <t>09, 113</t>
+  </si>
+  <si>
+    <t>CVX Code</t>
+  </si>
+  <si>
+    <t>20, 110, 50, 120, 130, 22, 01, 120, 132, 115</t>
   </si>
 </sst>
 </file>
@@ -765,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,9 +1268,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,20 +1303,35 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,10 +1831,1682 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA88EA9-4943-4DF6-A2E2-E9E8DCC3621D}">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>116</v>
+      </c>
+      <c r="B10">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>121</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>122</v>
+      </c>
+      <c r="B13">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>136</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>142</v>
+      </c>
+      <c r="B20">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>142</v>
+      </c>
+      <c r="B21">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>145</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>145</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>146</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>147</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>153</v>
+      </c>
+      <c r="B27">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>154</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>155</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>156</v>
+      </c>
+      <c r="B31">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>159</v>
+      </c>
+      <c r="B33">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>162</v>
+      </c>
+      <c r="B37">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>163</v>
+      </c>
+      <c r="B38">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>175</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>178</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>179</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>179</v>
+      </c>
+      <c r="B43">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>179</v>
+      </c>
+      <c r="B44">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>179</v>
+      </c>
+      <c r="B45">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>182</v>
+      </c>
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>184</v>
+      </c>
+      <c r="B51">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>185</v>
+      </c>
+      <c r="B52">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>186</v>
+      </c>
+      <c r="B53">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>187</v>
+      </c>
+      <c r="B54">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>188</v>
+      </c>
+      <c r="B55">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>197</v>
+      </c>
+      <c r="B57">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>198</v>
+      </c>
+      <c r="B58">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>200</v>
+      </c>
+      <c r="B59">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>201</v>
+      </c>
+      <c r="B60">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>202</v>
+      </c>
+      <c r="B61">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>202</v>
+      </c>
+      <c r="B62">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>203</v>
+      </c>
+      <c r="B63">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>203</v>
+      </c>
+      <c r="B64">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>204</v>
+      </c>
+      <c r="B65">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>204</v>
+      </c>
+      <c r="B66">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>206</v>
+      </c>
+      <c r="B67">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>207</v>
+      </c>
+      <c r="B68">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>208</v>
+      </c>
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>209</v>
+      </c>
+      <c r="B70">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>210</v>
+      </c>
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>210</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>210</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>211</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>212</v>
+      </c>
+      <c r="B75">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>213</v>
+      </c>
+      <c r="B76">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>214</v>
+      </c>
+      <c r="B77">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>215</v>
+      </c>
+      <c r="B78">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>216</v>
+      </c>
+      <c r="B79">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>390</v>
+      </c>
+      <c r="B80">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>391</v>
+      </c>
+      <c r="B81">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>391</v>
+      </c>
+      <c r="B82">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1000</v>
+      </c>
+      <c r="B83">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1010</v>
+      </c>
+      <c r="B84">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1020</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1030</v>
+      </c>
+      <c r="B86">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1050</v>
+      </c>
+      <c r="B87">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1060</v>
+      </c>
+      <c r="B88">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1070</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1080</v>
+      </c>
+      <c r="B90">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1090</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1150</v>
+      </c>
+      <c r="B92">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1160</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1170</v>
+      </c>
+      <c r="B94">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1180</v>
+      </c>
+      <c r="B95">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1190</v>
+      </c>
+      <c r="B96">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1230</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1240</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1250</v>
+      </c>
+      <c r="B99">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1260</v>
+      </c>
+      <c r="B100">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1270</v>
+      </c>
+      <c r="B101">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1300</v>
+      </c>
+      <c r="B102">
+        <v>59</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1310</v>
+      </c>
+      <c r="B103">
+        <v>60</v>
+      </c>
+      <c r="C103" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1320</v>
+      </c>
+      <c r="B104">
+        <v>46</v>
+      </c>
+      <c r="C104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1330</v>
+      </c>
+      <c r="B105">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1340</v>
+      </c>
+      <c r="B106">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1350</v>
+      </c>
+      <c r="B107">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1400</v>
+      </c>
+      <c r="B108">
+        <v>86</v>
+      </c>
+      <c r="C108" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1410</v>
+      </c>
+      <c r="B109">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1420</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1490</v>
+      </c>
+      <c r="B111">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1491</v>
+      </c>
+      <c r="B112">
+        <v>134</v>
+      </c>
+      <c r="C112" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1510</v>
+      </c>
+      <c r="B113">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1520</v>
+      </c>
+      <c r="B114">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1570</v>
+      </c>
+      <c r="B115">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1590</v>
+      </c>
+      <c r="B116">
+        <v>68</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1630</v>
+      </c>
+      <c r="B117">
+        <v>69</v>
+      </c>
+      <c r="C117" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1640</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1650</v>
+      </c>
+      <c r="B119">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1680</v>
+      </c>
+      <c r="B120">
+        <v>70</v>
+      </c>
+      <c r="C120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1720</v>
+      </c>
+      <c r="B121">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1730</v>
+      </c>
+      <c r="B122">
+        <v>73</v>
+      </c>
+      <c r="C122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1740</v>
+      </c>
+      <c r="B123">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1760</v>
+      </c>
+      <c r="B124">
+        <v>71</v>
+      </c>
+      <c r="C124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1770</v>
+      </c>
+      <c r="B125">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1800</v>
+      </c>
+      <c r="B126">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1810</v>
+      </c>
+      <c r="B127">
+        <v>76</v>
+      </c>
+      <c r="C127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1830</v>
+      </c>
+      <c r="B128">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1840</v>
+      </c>
+      <c r="B129">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1850</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1860</v>
+      </c>
+      <c r="B131">
+        <v>95</v>
+      </c>
+      <c r="C131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1870</v>
+      </c>
+      <c r="B132">
+        <v>96</v>
+      </c>
+      <c r="C132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1880</v>
+      </c>
+      <c r="B133">
+        <v>97</v>
+      </c>
+      <c r="C133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1890</v>
+      </c>
+      <c r="B134">
+        <v>98</v>
+      </c>
+      <c r="C134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1900</v>
+      </c>
+      <c r="B135">
+        <v>78</v>
+      </c>
+      <c r="C135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1910</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1920</v>
+      </c>
+      <c r="B137">
+        <v>41</v>
+      </c>
+      <c r="C137" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1930</v>
+      </c>
+      <c r="B138">
+        <v>53</v>
+      </c>
+      <c r="C138" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1940</v>
+      </c>
+      <c r="B139">
+        <v>101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1950</v>
+      </c>
+      <c r="B140">
+        <v>91</v>
+      </c>
+      <c r="C140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1960</v>
+      </c>
+      <c r="B141">
+        <v>79</v>
+      </c>
+      <c r="C141" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1980</v>
+      </c>
+      <c r="B142">
+        <v>81</v>
+      </c>
+      <c r="C142" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1990</v>
+      </c>
+      <c r="B143">
+        <v>80</v>
+      </c>
+      <c r="C143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2000</v>
+      </c>
+      <c r="B144">
+        <v>92</v>
+      </c>
+      <c r="C144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2010</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2020</v>
+      </c>
+      <c r="B146">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2110</v>
+      </c>
+      <c r="B147">
+        <v>121</v>
+      </c>
+      <c r="C147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>3141</v>
+      </c>
+      <c r="B148">
+        <v>131</v>
+      </c>
+      <c r="C148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>3143</v>
+      </c>
+      <c r="B149">
+        <v>133</v>
+      </c>
+      <c r="C149" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>9999</v>
+      </c>
+      <c r="B150">
+        <v>999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1429,13 +3537,13 @@
       <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
@@ -1448,3296 +3556,3270 @@
       <c r="F3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="33" t="s">
+      <c r="C4" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="F4" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="F5" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="53" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="F4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="F5" s="36" t="s">
+      <c r="C6" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="F6" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="48">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
+      <c r="C7" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="F7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="F6" s="36" t="s">
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="F9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="F7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="F9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39">
-        <v>116</v>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="48">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="39" t="s">
-        <v>112</v>
+      <c r="B10" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="C10" s="36">
         <v>-110</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="41"/>
       <c r="F10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="48">
         <v>22</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39">
-        <v>121</v>
-      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="39" t="s">
-        <v>129</v>
+      <c r="B11" s="38" t="s">
+        <v>114</v>
       </c>
       <c r="C11" s="36">
         <v>-12</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="F11" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39">
-        <v>2060</v>
-      </c>
+      <c r="D11" s="37"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="2:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
-        <v>133</v>
+      <c r="B12" s="38" t="s">
+        <v>118</v>
       </c>
       <c r="C12" s="36">
         <v>-4</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="37"/>
       <c r="F12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39">
-        <v>111</v>
+        <v>14</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="48" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
-        <v>130</v>
+      <c r="B13" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="36">
         <v>-7</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="F13" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39">
-        <v>2070</v>
-      </c>
+      <c r="D13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F14" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39">
-        <v>122</v>
+        <v>284</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="48" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="F15" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39">
-        <v>124</v>
+        <v>281</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="48">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="48">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-12</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-4</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="48">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-7</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="48">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="42"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="45">
+        <v>1</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="46"/>
+      <c r="C64" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="39">
-        <v>-12</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="39">
-        <v>-4</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="39">
-        <v>-7</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="43"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="46">
-        <v>1</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="47"/>
-      <c r="C64" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="33" t="s">
+      <c r="C70" s="49"/>
+      <c r="D70" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="C71" s="49"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E70" s="39"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="50"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="50"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="46"/>
+      <c r="C84" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="39" t="s">
+      <c r="D85" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="51"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="51" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="44" t="s">
+      <c r="C89" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="49"/>
+      <c r="D90" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C82" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="47"/>
-      <c r="C84" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" s="33" t="s">
+      <c r="E90" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="C91" s="49"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C90" s="50"/>
-      <c r="D90" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E90" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F93" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="50"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="56"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="46"/>
+      <c r="C103" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="51"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="51" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" s="44" t="s">
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="49"/>
+      <c r="D109" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="47"/>
-      <c r="C103" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" s="33" t="s">
+      <c r="E109" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="C110" s="49"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D104" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E104" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B107" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C107" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="50"/>
-      <c r="D109" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C110" s="50"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D112" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B113" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="38"/>
+      <c r="F114" s="50"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B115" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B122" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="56"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="56"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B123" s="46"/>
+      <c r="C123" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B125" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B126" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E112" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F112" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B113" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C113" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E114" s="39"/>
-      <c r="F114" s="51"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="51" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B117" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B121" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C121" s="46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="52"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B123" s="47"/>
-      <c r="C123" s="33" t="s">
+      <c r="D126" s="38"/>
+      <c r="E126" s="38"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B127" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B128" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D123" s="33" t="s">
+      <c r="C129" s="49"/>
+      <c r="D129" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E129" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E123" s="33" t="s">
+      <c r="C130" s="49"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C124" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E124" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C125" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C126" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B127" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C127" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="50"/>
-      <c r="D129" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E129" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C130" s="50"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C131" s="52"/>
-      <c r="D131" s="52"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F132" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="51" t="s">
-        <v>151</v>
+      <c r="B133" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="50" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D134" s="38"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="50"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="51"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B135" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="51" t="s">
-        <v>132</v>
+      <c r="C135" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="38"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="50" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C136" s="39">
+      <c r="B136" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B137" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C137" s="39">
+      <c r="B137" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C137" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B139" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C139" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D139" s="45"/>
-      <c r="E139" s="45" t="s">
-        <v>122</v>
+      <c r="B139" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="44"/>
+      <c r="E139" s="44" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C140" s="46">
+      <c r="B140" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C140" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="52" t="s">
+      <c r="B141" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="56"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="56"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="46"/>
+      <c r="C142" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B144" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" s="38"/>
+      <c r="E144" s="38"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="38"/>
+      <c r="E145" s="38"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B146" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" s="38"/>
+      <c r="E146" s="38"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B147" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C141" s="52"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="52"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" s="47"/>
-      <c r="C142" s="33" t="s">
+      <c r="D147" s="38"/>
+      <c r="E147" s="38"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D142" s="33" t="s">
+      <c r="C148" s="49"/>
+      <c r="D148" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148" s="38"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E142" s="33" t="s">
+      <c r="C149" s="49"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B143" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B144" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C144" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B145" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C145" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B146" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C146" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B147" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C147" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B148" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C148" s="50"/>
-      <c r="D148" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E148" s="39"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B149" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C149" s="50"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C150" s="52"/>
-      <c r="D150" s="52"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F151" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B152" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C152" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
-      <c r="F152" s="51" t="s">
-        <v>135</v>
+      <c r="B152" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="38"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="50" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D153" s="38"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="50"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B154" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="39" t="s">
+      <c r="C154" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
-      <c r="F153" s="51"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B154" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
-      <c r="F154" s="51" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B155" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C155" s="39">
+      <c r="B155" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B156" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C156" s="39">
+      <c r="B156" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C156" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B158" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C158" s="44" t="s">
+      <c r="B158" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="44"/>
+      <c r="E158" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B159" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B160" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160" s="56"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="56"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B161" s="46"/>
+      <c r="C161" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" s="38"/>
+      <c r="D162" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D158" s="45"/>
-      <c r="E158" s="45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B159" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C159" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B160" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C160" s="52"/>
-      <c r="D160" s="52"/>
-      <c r="E160" s="52"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B161" s="47"/>
-      <c r="C161" s="33" t="s">
+      <c r="E162" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="38"/>
+      <c r="D163" s="38"/>
+      <c r="E163" s="38"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="38"/>
+      <c r="D164" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E164" s="38"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C165" s="38"/>
+      <c r="D165" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E165" s="38"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" s="38"/>
+      <c r="E166" s="38"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D161" s="33" t="s">
+      <c r="C167" s="49"/>
+      <c r="D167" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E167" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E161" s="33" t="s">
+      <c r="C168" s="49"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B162" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C162" s="39"/>
-      <c r="D162" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E162" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B163" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B164" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C164" s="39"/>
-      <c r="D164" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E164" s="39"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B165" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C165" s="39"/>
-      <c r="D165" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E165" s="39"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B166" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C166" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B167" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C167" s="50"/>
-      <c r="D167" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E167" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B168" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C168" s="50"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B169" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C169" s="52"/>
-      <c r="D169" s="52"/>
+      <c r="C169" s="56"/>
+      <c r="D169" s="56"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F170" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B171" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C171" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-      <c r="F171" s="51" t="s">
-        <v>146</v>
+      <c r="B171" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D171" s="38"/>
+      <c r="E171" s="38"/>
+      <c r="F171" s="50" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B172" s="39" t="s">
+      <c r="B172" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D172" s="38"/>
+      <c r="E172" s="38"/>
+      <c r="F172" s="50"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C172" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="51"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B173" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" s="39" t="s">
+      <c r="C173" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="50"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="44"/>
+      <c r="E177" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-      <c r="F173" s="51"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B174" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C174" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B175" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C175" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B177" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C177" s="44" t="s">
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C178" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="56"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="46"/>
+      <c r="C180" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B181" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="38"/>
+      <c r="D181" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D177" s="45"/>
-      <c r="E177" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B178" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C178" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B179" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C179" s="52"/>
-      <c r="D179" s="52"/>
-      <c r="E179" s="52"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B180" s="47"/>
-      <c r="C180" s="33" t="s">
+      <c r="E181" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B182" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="38"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="38"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B183" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="38"/>
+      <c r="D183" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="38"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B184" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" s="38"/>
+      <c r="D184" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E184" s="38"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B185" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C185" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D185" s="38"/>
+      <c r="E185" s="38"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B186" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D180" s="33" t="s">
+      <c r="C186" s="49"/>
+      <c r="D186" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E186" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B187" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E180" s="33" t="s">
+      <c r="C187" s="49"/>
+      <c r="D187" s="38"/>
+      <c r="E187" s="38"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B188" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B181" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C181" s="39"/>
-      <c r="D181" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E181" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B182" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="39"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B183" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C183" s="39"/>
-      <c r="D183" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E183" s="39"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B184" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C184" s="39"/>
-      <c r="D184" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E184" s="39"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B185" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C185" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D185" s="39"/>
-      <c r="E185" s="39"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B186" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C186" s="50"/>
-      <c r="D186" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E186" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B187" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="50"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="39"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B188" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C188" s="52"/>
-      <c r="D188" s="52"/>
+      <c r="C188" s="56"/>
+      <c r="D188" s="56"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C189" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F189" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B190" s="39" t="s">
+      <c r="B190" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C190" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D190" s="38"/>
+      <c r="E190" s="38"/>
+      <c r="F190" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C190" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
-      <c r="F190" s="51" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B191" s="39" t="s">
+      <c r="B191" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D191" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E191" s="38"/>
+      <c r="F191" s="50"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B192" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D192" s="38"/>
+      <c r="E192" s="38"/>
+      <c r="F192" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B193" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C191" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D191" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E191" s="39"/>
-      <c r="F191" s="51"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B192" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
-      <c r="F192" s="51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B193" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
-      <c r="F193" s="51"/>
+      <c r="C193" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D193" s="38"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="50"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B194" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C194" s="39">
+      <c r="B194" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C194" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B195" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C195" s="39">
+      <c r="B195" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C195" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B197" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C197" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D197" s="45"/>
-      <c r="E197" s="45" t="s">
-        <v>150</v>
+      <c r="B197" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="44"/>
+      <c r="E197" s="44" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B198" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="C198" s="46" t="s">
-        <v>84</v>
+      <c r="B198" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C198" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B199" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C199" s="52"/>
-      <c r="D199" s="52"/>
-      <c r="E199" s="52"/>
+      <c r="B199" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" s="56"/>
+      <c r="D199" s="56"/>
+      <c r="E199" s="56"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B200" s="47"/>
+      <c r="B200" s="46"/>
       <c r="C200" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E200" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B201" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E201" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B202" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" s="38"/>
+      <c r="D202" s="38"/>
+      <c r="E202" s="38"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" s="38"/>
+      <c r="E203" s="38"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B204" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" s="38"/>
+      <c r="E204" s="38"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B205" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D205" s="38"/>
+      <c r="E205" s="38"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B206" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D200" s="33" t="s">
+      <c r="C206" s="49"/>
+      <c r="D206" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E206" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B207" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E200" s="33" t="s">
+      <c r="C207" s="49"/>
+      <c r="D207" s="38"/>
+      <c r="E207" s="38"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B208" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B201" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C201" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D201" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E201" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B202" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C202" s="39"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B203" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C203" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D203" s="39"/>
-      <c r="E203" s="39"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B204" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C204" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B205" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C205" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B206" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C206" s="50"/>
-      <c r="D206" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E206" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B207" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C207" s="50"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B208" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C208" s="52"/>
-      <c r="D208" s="52"/>
+      <c r="C208" s="56"/>
+      <c r="D208" s="56"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D209" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F209" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B210" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C210" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D210" s="39"/>
-      <c r="E210" s="39"/>
-      <c r="F210" s="51" t="s">
-        <v>137</v>
+      <c r="B210" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D210" s="38"/>
+      <c r="E210" s="38"/>
+      <c r="F210" s="50" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B211" s="39" t="s">
+      <c r="B211" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D211" s="38"/>
+      <c r="E211" s="38"/>
+      <c r="F211" s="50"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B212" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
-      <c r="F211" s="51"/>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B212" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C212" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
-      <c r="F212" s="51" t="s">
-        <v>132</v>
+      <c r="C212" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D212" s="38"/>
+      <c r="E212" s="38"/>
+      <c r="F212" s="50" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B213" s="48" t="s">
+      <c r="B213" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C213" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B214" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C214" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B216" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="44"/>
+      <c r="E216" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B217" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C217" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B218" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C218" s="56"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B219" s="46"/>
+      <c r="C219" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E219" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B220" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C220" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E220" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B221" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221" s="38"/>
+      <c r="D221" s="38"/>
+      <c r="E221" s="38"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B222" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" s="38"/>
+      <c r="E222" s="38"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B223" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C223" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C213" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B214" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C214" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B216" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C216" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D216" s="45"/>
-      <c r="E216" s="45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B217" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C217" s="46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B218" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C218" s="52"/>
-      <c r="D218" s="52"/>
-      <c r="E218" s="52"/>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B219" s="47"/>
-      <c r="C219" s="33" t="s">
+      <c r="D223" s="38"/>
+      <c r="E223" s="38"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B224" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D224" s="38"/>
+      <c r="E224" s="38"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B225" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D225" s="38"/>
+      <c r="E225" s="38"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B226" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D219" s="33" t="s">
+      <c r="C226" s="49"/>
+      <c r="D226" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E226" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B227" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E219" s="33" t="s">
+      <c r="C227" s="49"/>
+      <c r="D227" s="38"/>
+      <c r="E227" s="38"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B228" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B220" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C220" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D220" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E220" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B221" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C221" s="39"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="39"/>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B222" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C222" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D222" s="39"/>
-      <c r="E222" s="39"/>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B223" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C223" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D223" s="39"/>
-      <c r="E223" s="39"/>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B224" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C224" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D224" s="39"/>
-      <c r="E224" s="39"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B225" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C225" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D225" s="39"/>
-      <c r="E225" s="39"/>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B226" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C226" s="50"/>
-      <c r="D226" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E226" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B227" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C227" s="50"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="39"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B228" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C228" s="52"/>
-      <c r="D228" s="52"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="56"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E229" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F229" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B230" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C230" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D230" s="39"/>
-      <c r="E230" s="39"/>
-      <c r="F230" s="51" t="s">
-        <v>137</v>
+      <c r="B230" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C230" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D230" s="38"/>
+      <c r="E230" s="38"/>
+      <c r="F230" s="50" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B231" s="39" t="s">
+      <c r="B231" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D231" s="38"/>
+      <c r="E231" s="38"/>
+      <c r="F231" s="50"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B232" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C231" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D231" s="39"/>
-      <c r="E231" s="39"/>
-      <c r="F231" s="51"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B232" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C232" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D232" s="39"/>
-      <c r="E232" s="39"/>
-      <c r="F232" s="51" t="s">
-        <v>132</v>
+      <c r="C232" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D232" s="38"/>
+      <c r="E232" s="38"/>
+      <c r="F232" s="50" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B233" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C233" s="39">
+      <c r="B233" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C233" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B234" s="48" t="s">
+      <c r="B234" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C234" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B236" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="44"/>
+      <c r="E236" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C234" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B236" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C236" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D236" s="45"/>
-      <c r="E236" s="45" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B237" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C237" s="46" t="s">
-        <v>84</v>
+      <c r="B237" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C237" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B238" s="52" t="s">
+      <c r="B238" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C238" s="56"/>
+      <c r="D238" s="56"/>
+      <c r="E238" s="56"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B239" s="46"/>
+      <c r="C239" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B240" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C240" s="38"/>
+      <c r="D240" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C238" s="52"/>
-      <c r="D238" s="52"/>
-      <c r="E238" s="52"/>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B239" s="47"/>
-      <c r="C239" s="33" t="s">
+      <c r="E240" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B241" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C241" s="38"/>
+      <c r="D241" s="38"/>
+      <c r="E241" s="38"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B242" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C242" s="38"/>
+      <c r="D242" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E242" s="38"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B243" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C243" s="38"/>
+      <c r="D243" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E243" s="38"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B244" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C244" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D244" s="38"/>
+      <c r="E244" s="38"/>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B245" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D239" s="33" t="s">
+      <c r="C245" s="49"/>
+      <c r="D245" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E245" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B246" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E239" s="33" t="s">
+      <c r="C246" s="49"/>
+      <c r="D246" s="38"/>
+      <c r="E246" s="38"/>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B247" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B240" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C240" s="39"/>
-      <c r="D240" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E240" s="39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B241" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C241" s="39"/>
-      <c r="D241" s="39"/>
-      <c r="E241" s="39"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B242" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C242" s="39"/>
-      <c r="D242" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E242" s="39"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B243" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C243" s="39"/>
-      <c r="D243" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E243" s="39"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B244" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C244" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D244" s="39"/>
-      <c r="E244" s="39"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B245" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C245" s="50"/>
-      <c r="D245" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E245" s="39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B246" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C246" s="50"/>
-      <c r="D246" s="39"/>
-      <c r="E246" s="39"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B247" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C247" s="52"/>
-      <c r="D247" s="52"/>
+      <c r="C247" s="56"/>
+      <c r="D247" s="56"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B248" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E248" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F248" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B249" s="39" t="s">
+      <c r="B249" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" s="38"/>
+      <c r="E249" s="38"/>
+      <c r="F249" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B250" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C249" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D249" s="39"/>
-      <c r="E249" s="39"/>
-      <c r="F249" s="51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B250" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C250" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D250" s="39"/>
-      <c r="E250" s="39"/>
-      <c r="F250" s="51"/>
+      <c r="C250" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" s="38"/>
+      <c r="E250" s="38"/>
+      <c r="F250" s="50"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B251" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C251" s="39">
+      <c r="B251" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C251" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B252" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C252" s="39">
+      <c r="B252" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C252" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B254" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C254" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D254" s="45"/>
-      <c r="E254" s="45" t="s">
-        <v>119</v>
+      <c r="B254" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" s="44"/>
+      <c r="E254" s="44" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B255" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C255" s="46">
+      <c r="B255" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C255" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B256" s="52" t="s">
+      <c r="B256" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C256" s="56"/>
+      <c r="D256" s="56"/>
+      <c r="E256" s="56"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B257" s="46"/>
+      <c r="C257" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E257" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B258" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C258" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D258" s="38"/>
+      <c r="E258" s="38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B259" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C259" s="48"/>
+      <c r="D259" s="38"/>
+      <c r="E259" s="38"/>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B260" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C260" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D260" s="38"/>
+      <c r="E260" s="38"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B261" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C261" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D261" s="38"/>
+      <c r="E261" s="38"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B262" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C256" s="52"/>
-      <c r="D256" s="52"/>
-      <c r="E256" s="52"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B257" s="47"/>
-      <c r="C257" s="33" t="s">
+      <c r="D262" s="38"/>
+      <c r="E262" s="38"/>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B263" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D257" s="33" t="s">
+      <c r="C263" s="49"/>
+      <c r="D263" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E263" s="38"/>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B264" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E257" s="33" t="s">
+      <c r="C264" s="49"/>
+      <c r="D264" s="38"/>
+      <c r="E264" s="38"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B265" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B258" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C258" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D258" s="39"/>
-      <c r="E258" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B259" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C259" s="49"/>
-      <c r="D259" s="39"/>
-      <c r="E259" s="39"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B260" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C260" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D260" s="39"/>
-      <c r="E260" s="39"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B261" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C261" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D261" s="39"/>
-      <c r="E261" s="39"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B262" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C262" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D262" s="39"/>
-      <c r="E262" s="39"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B263" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C263" s="50"/>
-      <c r="D263" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E263" s="39"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B264" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C264" s="50"/>
-      <c r="D264" s="39"/>
-      <c r="E264" s="39"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B265" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C265" s="52"/>
-      <c r="D265" s="52"/>
+      <c r="C265" s="56"/>
+      <c r="D265" s="56"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B266" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C266" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D266" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E266" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F266" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B267" s="39" t="s">
+      <c r="B267" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D267" s="38"/>
+      <c r="E267" s="38"/>
+      <c r="F267" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B268" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C267" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D267" s="39"/>
-      <c r="E267" s="39"/>
-      <c r="F267" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B268" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C268" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D268" s="39"/>
-      <c r="E268" s="39"/>
-      <c r="F268" s="51"/>
+      <c r="C268" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D268" s="38"/>
+      <c r="E268" s="38"/>
+      <c r="F268" s="50"/>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B269" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C269" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D269" s="39"/>
-      <c r="E269" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F269" s="51" t="s">
-        <v>139</v>
+      <c r="B269" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C269" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" s="38"/>
+      <c r="E269" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F269" s="50" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B270" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C270" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D270" s="39"/>
-      <c r="E270" s="39"/>
-      <c r="F270" s="51" t="s">
-        <v>140</v>
+      <c r="B270" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C270" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D270" s="38"/>
+      <c r="E270" s="38"/>
+      <c r="F270" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B271" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C271" s="39">
+      <c r="B271" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C271" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B272" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C272" s="39">
+      <c r="B272" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C272" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B274" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C274" s="44" t="s">
+      <c r="B274" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" s="44"/>
+      <c r="E274" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B275" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C275" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B276" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="56"/>
+      <c r="D276" s="56"/>
+      <c r="E276" s="56"/>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B277" s="46"/>
+      <c r="C277" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E277" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B278" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C278" s="38"/>
+      <c r="D278" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D274" s="45"/>
-      <c r="E274" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B275" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C275" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B276" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C276" s="52"/>
-      <c r="D276" s="52"/>
-      <c r="E276" s="52"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B277" s="47"/>
-      <c r="C277" s="33" t="s">
+      <c r="E278" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B279" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C279" s="38"/>
+      <c r="D279" s="38"/>
+      <c r="E279" s="38"/>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B280" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C280" s="38"/>
+      <c r="D280" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E280" s="38"/>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B281" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C281" s="38"/>
+      <c r="D281" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E281" s="38"/>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B282" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C282" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D282" s="38"/>
+      <c r="E282" s="38"/>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B283" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D277" s="33" t="s">
+      <c r="C283" s="49"/>
+      <c r="D283" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E283" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B284" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E277" s="33" t="s">
+      <c r="C284" s="49"/>
+      <c r="D284" s="38"/>
+      <c r="E284" s="38"/>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B285" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B278" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C278" s="39"/>
-      <c r="D278" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E278" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B279" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C279" s="39"/>
-      <c r="D279" s="39"/>
-      <c r="E279" s="39"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B280" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C280" s="39"/>
-      <c r="D280" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E280" s="39"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B281" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C281" s="39"/>
-      <c r="D281" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E281" s="39"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B282" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C282" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D282" s="39"/>
-      <c r="E282" s="39"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B283" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C283" s="50"/>
-      <c r="D283" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E283" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B284" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C284" s="50"/>
-      <c r="D284" s="39"/>
-      <c r="E284" s="39"/>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B285" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C285" s="52"/>
-      <c r="D285" s="52"/>
+      <c r="C285" s="56"/>
+      <c r="D285" s="56"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B286" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C286" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D286" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E286" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F286" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B287" s="39" t="s">
+      <c r="B287" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D287" s="38"/>
+      <c r="E287" s="38"/>
+      <c r="F287" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B288" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C287" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D287" s="39"/>
-      <c r="E287" s="39"/>
-      <c r="F287" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B288" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C288" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D288" s="39"/>
-      <c r="E288" s="39"/>
-      <c r="F288" s="51"/>
+      <c r="C288" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D288" s="38"/>
+      <c r="E288" s="38"/>
+      <c r="F288" s="50"/>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B289" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C289" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D289" s="39"/>
-      <c r="E289" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F289" s="51" t="s">
-        <v>139</v>
+      <c r="B289" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C289" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" s="38"/>
+      <c r="E289" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F289" s="50" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B290" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C290" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D290" s="39"/>
-      <c r="E290" s="39"/>
-      <c r="F290" s="51" t="s">
-        <v>140</v>
+      <c r="B290" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C290" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D290" s="38"/>
+      <c r="E290" s="38"/>
+      <c r="F290" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B291" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C291" s="39">
+      <c r="B291" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C291" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B292" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C292" s="39">
+      <c r="B292" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C292" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B294" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C294" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D294" s="45"/>
-      <c r="E294" s="45" t="s">
-        <v>121</v>
+      <c r="B294" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D294" s="44"/>
+      <c r="E294" s="44" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B295" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C295" s="46">
+      <c r="B295" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C295" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B296" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C296" s="52"/>
-      <c r="D296" s="52"/>
-      <c r="E296" s="52"/>
+      <c r="B296" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C296" s="56"/>
+      <c r="D296" s="56"/>
+      <c r="E296" s="56"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B297" s="47"/>
+      <c r="B297" s="46"/>
       <c r="C297" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D297" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E297" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B298" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C298" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D298" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E298" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B299" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C299" s="38"/>
+      <c r="D299" s="38"/>
+      <c r="E299" s="38"/>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B300" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C300" s="38"/>
+      <c r="D300" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E300" s="38"/>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B301" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C301" s="38"/>
+      <c r="D301" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E301" s="38"/>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B302" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C302" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D302" s="38"/>
+      <c r="E302" s="38"/>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B303" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D297" s="33" t="s">
+      <c r="C303" s="49"/>
+      <c r="D303" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E303" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B304" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E297" s="33" t="s">
+      <c r="C304" s="49"/>
+      <c r="D304" s="38"/>
+      <c r="E304" s="38"/>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B305" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B298" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C298" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D298" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E298" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B299" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C299" s="39"/>
-      <c r="D299" s="39"/>
-      <c r="E299" s="39"/>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B300" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C300" s="39"/>
-      <c r="D300" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E300" s="39"/>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B301" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C301" s="39"/>
-      <c r="D301" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E301" s="39"/>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B302" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C302" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D302" s="39"/>
-      <c r="E302" s="39"/>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B303" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C303" s="50"/>
-      <c r="D303" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E303" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B304" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C304" s="50"/>
-      <c r="D304" s="39"/>
-      <c r="E304" s="39"/>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B305" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C305" s="52"/>
-      <c r="D305" s="52"/>
+      <c r="C305" s="56"/>
+      <c r="D305" s="56"/>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B306" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C306" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D306" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E306" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F306" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B307" s="39" t="s">
+      <c r="B307" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" s="38"/>
+      <c r="E307" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F307" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B308" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C307" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D307" s="39"/>
-      <c r="E307" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F307" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B308" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C308" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D308" s="39"/>
-      <c r="E308" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F308" s="51"/>
+      <c r="C308" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" s="38"/>
+      <c r="E308" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F308" s="50"/>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B309" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C309" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D309" s="39"/>
-      <c r="E309" s="39"/>
-      <c r="F309" s="51"/>
+      <c r="B309" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" s="38"/>
+      <c r="E309" s="38"/>
+      <c r="F309" s="50"/>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B310" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C310" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D310" s="39"/>
-      <c r="E310" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F310" s="51" t="s">
-        <v>142</v>
+      <c r="B310" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C310" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" s="38"/>
+      <c r="E310" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F310" s="50" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B311" s="39" t="s">
+      <c r="B311" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D311" s="38"/>
+      <c r="E311" s="38"/>
+      <c r="F311" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B312" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C311" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D311" s="39"/>
-      <c r="E311" s="39"/>
-      <c r="F311" s="51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B312" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C312" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D312" s="39"/>
-      <c r="E312" s="39"/>
-      <c r="F312" s="51" t="s">
-        <v>116</v>
+      <c r="C312" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D312" s="38"/>
+      <c r="E312" s="38"/>
+      <c r="F312" s="50" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B313" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C313" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D313" s="39"/>
-      <c r="E313" s="39"/>
-      <c r="F313" s="51" t="s">
-        <v>140</v>
+      <c r="B313" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C313" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D313" s="38"/>
+      <c r="E313" s="38"/>
+      <c r="F313" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B314" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C314" s="39">
+      <c r="B314" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C314" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B315" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C315" s="39">
+      <c r="B315" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C315" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B317" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C317" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D317" s="45"/>
-      <c r="E317" s="45" t="s">
-        <v>125</v>
+      <c r="B317" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C317" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D317" s="44"/>
+      <c r="E317" s="44" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B318" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C318" s="46" t="s">
-        <v>84</v>
+      <c r="B318" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C318" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B319" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C319" s="52"/>
-      <c r="D319" s="52"/>
-      <c r="E319" s="52"/>
+      <c r="B319" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C319" s="56"/>
+      <c r="D319" s="56"/>
+      <c r="E319" s="56"/>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B320" s="47"/>
+      <c r="B320" s="46"/>
       <c r="C320" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D320" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E320" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B321" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C321" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D321" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E321" s="38"/>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B322" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C322" s="38"/>
+      <c r="D322" s="38"/>
+      <c r="E322" s="38"/>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B323" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C323" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D323" s="38"/>
+      <c r="E323" s="38"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B324" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C324" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D324" s="38"/>
+      <c r="E324" s="38"/>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B325" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C325" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D325" s="38"/>
+      <c r="E325" s="38"/>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B326" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D320" s="33" t="s">
+      <c r="C326" s="49"/>
+      <c r="D326" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E326" s="38"/>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B327" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E320" s="33" t="s">
+      <c r="C327" s="49"/>
+      <c r="D327" s="38"/>
+      <c r="E327" s="38"/>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B328" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B321" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C321" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D321" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E321" s="39"/>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B322" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C322" s="39"/>
-      <c r="D322" s="39"/>
-      <c r="E322" s="39"/>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B323" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C323" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D323" s="39"/>
-      <c r="E323" s="39"/>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B324" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C324" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D324" s="39"/>
-      <c r="E324" s="39"/>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B325" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C325" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D325" s="39"/>
-      <c r="E325" s="39"/>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B326" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C326" s="50"/>
-      <c r="D326" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E326" s="39"/>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B327" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C327" s="50"/>
-      <c r="D327" s="39"/>
-      <c r="E327" s="39"/>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B328" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C328" s="52"/>
-      <c r="D328" s="52"/>
+      <c r="C328" s="56"/>
+      <c r="D328" s="56"/>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B329" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C329" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D329" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E329" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F329" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B330" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C330" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D330" s="39"/>
-      <c r="E330" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F330" s="51"/>
+      <c r="B330" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D330" s="38"/>
+      <c r="E330" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F330" s="50"/>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B331" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C331" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D331" s="39"/>
-      <c r="E331" s="39"/>
-      <c r="F331" s="51"/>
+      <c r="B331" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D331" s="38"/>
+      <c r="E331" s="38"/>
+      <c r="F331" s="50"/>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B332" s="39" t="s">
+      <c r="B332" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D332" s="38"/>
+      <c r="E332" s="38"/>
+      <c r="F332" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B333" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C332" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D332" s="39"/>
-      <c r="E332" s="39"/>
-      <c r="F332" s="51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B333" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C333" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D333" s="39"/>
-      <c r="E333" s="39"/>
-      <c r="F333" s="51" t="s">
-        <v>116</v>
+      <c r="C333" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D333" s="38"/>
+      <c r="E333" s="38"/>
+      <c r="F333" s="50" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B334" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C334" s="39">
+      <c r="B334" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C334" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B335" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C335" s="39">
+      <c r="B335" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C335" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B337" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C337" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D337" s="45"/>
-      <c r="E337" s="45" t="s">
-        <v>144</v>
+      <c r="B337" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C337" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D337" s="44"/>
+      <c r="E337" s="44" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B338" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C338" s="46" t="s">
-        <v>84</v>
+      <c r="B338" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C338" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B339" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C339" s="52"/>
-      <c r="D339" s="52"/>
-      <c r="E339" s="52"/>
+      <c r="B339" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C339" s="56"/>
+      <c r="D339" s="56"/>
+      <c r="E339" s="56"/>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B340" s="47"/>
+      <c r="B340" s="46"/>
       <c r="C340" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D340" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E340" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B341" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C341" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D341" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E341" s="38"/>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B342" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C342" s="38"/>
+      <c r="D342" s="38"/>
+      <c r="E342" s="38"/>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B343" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C343" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D343" s="38"/>
+      <c r="E343" s="38"/>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B344" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C344" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D344" s="38"/>
+      <c r="E344" s="38"/>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B345" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C345" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D345" s="38"/>
+      <c r="E345" s="38"/>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B346" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D340" s="33" t="s">
+      <c r="C346" s="49"/>
+      <c r="D346" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E346" s="38"/>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B347" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E340" s="33" t="s">
+      <c r="C347" s="49"/>
+      <c r="D347" s="38"/>
+      <c r="E347" s="38"/>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B348" s="56" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B341" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C341" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D341" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E341" s="39"/>
-    </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B342" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C342" s="39"/>
-      <c r="D342" s="39"/>
-      <c r="E342" s="39"/>
-    </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B343" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C343" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D343" s="39"/>
-      <c r="E343" s="39"/>
-    </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B344" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C344" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D344" s="39"/>
-      <c r="E344" s="39"/>
-    </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B345" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C345" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D345" s="39"/>
-      <c r="E345" s="39"/>
-    </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B346" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C346" s="50"/>
-      <c r="D346" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E346" s="39"/>
-    </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B347" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C347" s="50"/>
-      <c r="D347" s="39"/>
-      <c r="E347" s="39"/>
-    </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B348" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C348" s="52"/>
-      <c r="D348" s="52"/>
+      <c r="C348" s="56"/>
+      <c r="D348" s="56"/>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B349" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C349" s="33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D349" s="33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E349" s="33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F349" s="33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B350" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C350" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D350" s="39"/>
-      <c r="E350" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F350" s="51"/>
+      <c r="B350" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" s="38"/>
+      <c r="E350" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F350" s="50"/>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B351" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C351" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D351" s="39"/>
-      <c r="E351" s="39"/>
-      <c r="F351" s="51"/>
+      <c r="B351" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C351" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" s="38"/>
+      <c r="E351" s="38"/>
+      <c r="F351" s="50"/>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B352" s="39" t="s">
+      <c r="B352" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D352" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E352" s="38"/>
+      <c r="F352" s="50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B353" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C352" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D352" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E352" s="39"/>
-      <c r="F352" s="51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B353" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C353" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D353" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E353" s="39"/>
-      <c r="F353" s="51" t="s">
-        <v>156</v>
+      <c r="C353" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D353" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E353" s="38"/>
+      <c r="F353" s="50" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B354" s="39" t="s">
+      <c r="B354" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D354" s="38"/>
+      <c r="E354" s="38"/>
+      <c r="F354" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B355" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C354" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D354" s="39"/>
-      <c r="E354" s="39"/>
-      <c r="F354" s="51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B355" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C355" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D355" s="39"/>
-      <c r="E355" s="39"/>
-      <c r="F355" s="51" t="s">
-        <v>116</v>
+      <c r="C355" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D355" s="38"/>
+      <c r="E355" s="38"/>
+      <c r="F355" s="50" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B356" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C356" s="39">
+      <c r="B356" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C356" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B357" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C357" s="39">
+      <c r="B357" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C357" s="38">
         <v>3</v>
       </c>
     </row>
@@ -4803,7 +6885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A220"/>
   <sheetViews>
@@ -4823,25 +6905,25 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Child" vaccineIds="110, 112, 114, 115, 116, 2060, 111, 2070, 113, 121, 1150, 142, 227"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Child" vaccineIds="28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B6&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C6&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Adult" vaccineIds="122, 124, 123"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Adult" vaccineIds="09, 113, 115"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B7&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C7&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Td" vaccineIds="122, 124"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Td" vaccineIds="09, 113"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B8&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C8&amp;CHAR(34)&amp;" validAge="&amp;CHAR(34)&amp;Schedules!E8&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Tdap" vaccineIds="123, 110, 114, 113, 115, 116, 121, 142, 227, 2060, 111, 2070" validAge="7 years"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Tdap" vaccineIds="20, 110, 50, 120, 130, 22, 01, 120, 132, 115" validAge="7 years"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -6130,7 +8212,7 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6144,7 +8226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q46"/>
   <sheetViews>
@@ -6171,52 +8253,52 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
@@ -6224,7 +8306,7 @@
         <v>38701</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -6243,7 +8325,7 @@
         <v>93487</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O3" s="19">
         <v>39549</v>
@@ -6256,20 +8338,20 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4">
         <f>IF(C4="","",IF(ISNA(VLOOKUP(Test!C4,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C4,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E4" s="23">
         <v>38763</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -6288,33 +8370,33 @@
         <v>93487</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O4" s="19">
         <v>39549</v>
       </c>
       <c r="P4" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 1", "02/15/2006",110, "P2", "2",  "03/15/2006",  "04/15/2006",  "05/15/2006",  "12/15/2155");</v>
+        <v>testF("Dose 1", "02/15/2006",20, "P2", "2",  "03/15/2006",  "04/15/2006",  "05/15/2006",  "12/15/2155");</v>
       </c>
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
         <f>IF(C5="","",IF(ISNA(VLOOKUP(Test!C5,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C5,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E5" s="23">
         <v>38822</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5">
         <v>3</v>
@@ -6333,33 +8415,33 @@
         <v>93487</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O5" s="19">
         <v>39549</v>
       </c>
       <c r="P5" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 2", "04/15/2006",110, "P3", "3",  "05/13/2006",  "06/15/2006",  "07/15/2006",  "12/15/2155");</v>
+        <v>testF("Dose 2", "04/15/2006",20, "P3", "3",  "05/13/2006",  "06/15/2006",  "07/15/2006",  "12/15/2155");</v>
       </c>
       <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
         <f>IF(C6="","",IF(ISNA(VLOOKUP(Test!C6,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C6,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E6" s="23">
         <v>38884</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H6" s="5">
         <v>4</v>
@@ -6377,33 +8459,33 @@
         <v>93487</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O6" s="19">
         <v>39549</v>
       </c>
       <c r="P6" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 3", "06/16/2006",110, "P4", "4",  "12/16/2006",  "12/16/2006",  "07/15/2007",  "12/15/2155");</v>
+        <v>testF("Dose 3", "06/16/2006",20, "P4", "4",  "12/16/2006",  "12/16/2006",  "07/15/2007",  "12/15/2155");</v>
       </c>
       <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
         <f>IF(C7="","",IF(ISNA(VLOOKUP(Test!C7,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C7,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E7" s="23">
         <v>39066</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
@@ -6421,36 +8503,36 @@
         <v>93487</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O7" s="19">
         <v>39549</v>
       </c>
       <c r="P7" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 4", "12/15/2006",110, "B5", "5",  "12/15/2009",  "12/15/2009",  "12/15/2012",  "12/15/2155");</v>
+        <v>testF("Dose 4", "12/15/2006",20, "B5", "5",  "12/15/2009",  "12/15/2009",  "12/15/2012",  "12/15/2155");</v>
       </c>
       <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4">
         <f>IF(C8="","",IF(ISNA(VLOOKUP(Test!C8,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C8,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E8" s="23">
         <v>40162</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I8" s="23">
         <v>42719</v>
@@ -6465,36 +8547,36 @@
         <v>93487</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O8" s="19">
         <v>39549</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 5", "12/15/2009",110, "B10", "B",  "12/15/2016",  "12/15/2016",  "12/15/2021",  "12/15/2155");</v>
+        <v>testF("Dose 5", "12/15/2009",20, "B10", "B",  "12/15/2016",  "12/15/2016",  "12/15/2021",  "12/15/2155");</v>
       </c>
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
         <f>IF(C9="","",IF(ISNA(VLOOKUP(Test!C9,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C9,Schedules!F$4:J$18,5)))</f>
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E9" s="23">
         <v>42719</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I9" s="23">
         <v>44545</v>
@@ -6509,20 +8591,20 @@
         <v>93487</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O9" s="19">
         <v>39549</v>
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Booster", "12/15/2016",142, "B10", "B",  "12/15/2021",  "12/15/2021",  "12/15/2028",  "12/15/2155");</v>
+        <v>testF("Booster", "12/15/2016",132, "B10", "B",  "12/15/2021",  "12/15/2021",  "12/15/2028",  "12/15/2155");</v>
       </c>
       <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -6530,7 +8612,7 @@
         <v>38701</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -6549,7 +8631,7 @@
         <v>93487</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="18" t="str">
@@ -6560,20 +8642,20 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4">
         <f>IF(C11="","",IF(ISNA(VLOOKUP(Test!C11,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C11,Schedules!F$4:J$18,5)))</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E11" s="23">
         <v>38763</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
@@ -6592,31 +8674,31 @@
         <v>93487</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 1", "02/15/2006",115, "P2", "2",  "03/15/2006",  "04/15/2006",  "05/15/2006",  "12/15/2155");</v>
+        <v>testF("Dose 1", "02/15/2006",120, "P2", "2",  "03/15/2006",  "04/15/2006",  "05/15/2006",  "12/15/2155");</v>
       </c>
       <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
         <f>IF(C12="","",IF(ISNA(VLOOKUP(Test!C12,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C12,Schedules!F$4:J$18,5)))</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E12" s="23">
         <v>38822</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H12" s="5">
         <v>3</v>
@@ -6635,31 +8717,31 @@
         <v>93487</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 2", "04/15/2006",115, "P3", "3",  "05/13/2006",  "06/15/2006",  "07/15/2006",  "12/15/2155");</v>
+        <v>testF("Dose 2", "04/15/2006",120, "P3", "3",  "05/13/2006",  "06/15/2006",  "07/15/2006",  "12/15/2155");</v>
       </c>
       <c r="Q12" s="20"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4">
         <f>IF(C13="","",IF(ISNA(VLOOKUP(Test!C13,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C13,Schedules!F$4:J$18,5)))</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E13" s="23">
         <v>38884</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H13" s="5">
         <v>4</v>
@@ -6677,31 +8759,31 @@
         <v>93487</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 3", "06/16/2006",115, "P4", "4",  "12/16/2006",  "12/16/2006",  "07/15/2007",  "12/15/2155");</v>
+        <v>testF("Dose 3", "06/16/2006",120, "P4", "4",  "12/16/2006",  "12/16/2006",  "07/15/2007",  "12/15/2155");</v>
       </c>
       <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
         <f>IF(C14="","",IF(ISNA(VLOOKUP(Test!C14,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C14,Schedules!F$4:J$18,5)))</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E14" s="23">
         <v>39066</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H14" s="5">
         <v>5</v>
@@ -6719,18 +8801,18 @@
         <v>93487</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 4", "12/15/2006",115, "B5", "5",  "12/15/2009",  "12/15/2009",  "12/15/2012",  "12/15/2155");</v>
+        <v>testF("Dose 4", "12/15/2006",120, "B5", "5",  "12/15/2009",  "12/15/2009",  "12/15/2012",  "12/15/2155");</v>
       </c>
       <c r="Q14" s="20"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -6738,7 +8820,7 @@
         <v>38402</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -6766,20 +8848,20 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="21" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4">
         <f>IF(C16="","",IF(ISNA(VLOOKUP(Test!C16,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C16,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E16" s="23">
         <v>38524</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -6803,26 +8885,26 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 1", "06/21/2005",110, "P2", "2",  "07/19/2005",  "07/19/2005",  "08/21/2005",  "02/19/2155");</v>
+        <v>testF("Dose 1", "06/21/2005",20, "P2", "2",  "07/19/2005",  "07/19/2005",  "08/21/2005",  "02/19/2155");</v>
       </c>
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" s="4">
         <f>IF(C17="","",IF(ISNA(VLOOKUP(Test!C17,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C17,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E17" s="23">
         <v>38583</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
@@ -6845,20 +8927,20 @@
       <c r="O17" s="18"/>
       <c r="P17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 2", "08/19/2005",110, "P3", "3",  "09/16/2005",  "10/16/2005",  "11/16/2005",  "02/19/2155");</v>
+        <v>testF("Dose 2", "08/19/2005",20, "P3", "3",  "09/16/2005",  "10/16/2005",  "11/16/2005",  "02/19/2155");</v>
       </c>
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4">
         <f>IF(C18="","",IF(ISNA(VLOOKUP(Test!C18,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C18,Schedules!F$4:J$18,5)))</f>
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E18" s="23">
         <v>38874</v>
@@ -6873,13 +8955,13 @@
       <c r="O18" s="18"/>
       <c r="P18" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 3", "06/06/2006",113, "", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
+        <v>testF("Dose 3", "06/06/2006",50, "", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
       </c>
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -6911,20 +8993,20 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="21" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4">
         <f>IF(C20="","",IF(ISNA(VLOOKUP(Test!C20,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C20,Schedules!F$4:J$18,5)))</f>
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E20" s="23">
         <v>38503</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="23"/>
@@ -6935,26 +9017,26 @@
       <c r="O20" s="18"/>
       <c r="P20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 1", "05/31/2005",114, "P1", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
+        <v>testF("Dose 1", "05/31/2005",110, "P1", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
       </c>
       <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4">
         <f>IF(C21="","",IF(ISNA(VLOOKUP(Test!C21,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C21,Schedules!F$4:J$18,5)))</f>
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E21" s="23">
         <v>38562</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="23"/>
@@ -6965,26 +9047,26 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 2", "07/29/2005",114, "P2", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
+        <v>testF("Dose 2", "07/29/2005",110, "P2", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
       </c>
       <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" s="4">
         <f>IF(C22="","",IF(ISNA(VLOOKUP(Test!C22,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C22,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E22" s="23">
         <v>38659</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="23"/>
@@ -6995,20 +9077,20 @@
       <c r="O22" s="18"/>
       <c r="P22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 3", "11/03/2005",110, "P3", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
+        <v>testF("Dose 3", "11/03/2005",20, "P3", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
       </c>
       <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" s="4">
         <f>IF(C23="","",IF(ISNA(VLOOKUP(Test!C23,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!C23,Schedules!F$4:J$18,5)))</f>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E23" s="23">
         <v>38897</v>
@@ -7023,13 +9105,13 @@
       <c r="O23" s="18"/>
       <c r="P23" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>testF("Dose 4", "06/29/2006",110, "", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
+        <v>testF("Dose 4", "06/29/2006",20, "", "",  "01/00/1900",  "01/00/1900",  "01/00/1900",  "01/00/1900");</v>
       </c>
       <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
@@ -7087,7 +9169,7 @@
     </row>
     <row r="27" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -7104,37 +9186,37 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="55"/>
+      <c r="L28" s="60"/>
       <c r="N28" s="6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="20"/>
     </row>
@@ -7197,7 +9279,7 @@
         <v>38763</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -7206,20 +9288,20 @@
         <v>38763</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="L31" s="4">
+        <v>96</v>
+      </c>
+      <c r="L31" s="4" t="str">
         <f>IF(K31="","",IF(ISNA(VLOOKUP(Test!K31,Schedules!F$4:J$14,5)),"? ? ?",VLOOKUP(Test!K31,Schedules!F$4:J$14,5)))</f>
-        <v>2070</v>
+        <v>01</v>
       </c>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18" t="str">
         <f>IF(D31="? ? ?","","testD("&amp;CHAR(34)&amp;B31&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;TEXT(E31,"MM/DD/YYYY")&amp;CHAR(34)&amp;","&amp;TEXT(D31,"0")&amp;", "&amp;CHAR(34)&amp;G31&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;H31&amp;CHAR(34)&amp;",  "&amp;CHAR(34)&amp;TEXT(I31,"MM/DD/YYYY")&amp;CHAR(34)&amp;",  "&amp;CHAR(34)&amp;J31&amp;CHAR(34)&amp;",  "&amp;IF(L31="","0",L31)&amp;");")</f>
-        <v>testD("", "02/15/2006",, "A1", "1",  "02/15/2006",  "V",  2070);</v>
+        <v>testD("", "02/15/2006",, "A1", "1",  "02/15/2006",  "V",  01);</v>
       </c>
       <c r="Q31" s="20"/>
     </row>

--- a/src/main/webapp/schedules/Diphtheria.xlsx
+++ b/src/main/webapp/schedules/Diphtheria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7533C466-4CC1-471E-8C99-85499DE2A1B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA224D-DEA2-40B5-9AA0-C633DF88604E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32352" yWindow="-4008" windowWidth="17280" windowHeight="9240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -918,9 +921,6 @@
     <t>TCH</t>
   </si>
   <si>
-    <t>28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115</t>
-  </si>
-  <si>
     <t>09, 113, 115</t>
   </si>
   <si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>20, 110, 50, 120, 130, 22, 01, 120, 132, 115</t>
+  </si>
+  <si>
+    <t>28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115, 107, 106, 198</t>
   </si>
 </sst>
 </file>
@@ -3505,7 +3508,7 @@
   <dimension ref="B1:J357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3560,7 +3563,7 @@
       <c r="H3" s="52"/>
       <c r="I3" s="35"/>
       <c r="J3" s="55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3568,7 +3571,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D4" s="59"/>
       <c r="F4" s="36" t="s">
@@ -3600,7 +3603,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D6" s="37"/>
       <c r="F6" s="36" t="s">
@@ -3618,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D7" s="39"/>
       <c r="F7" s="36" t="s">
@@ -3636,7 +3639,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="40" t="s">
@@ -6826,15 +6829,17 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B348:D348"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B296:E296"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B208:D208"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="B102:E102"/>
     <mergeCell ref="B72:D72"/>
@@ -6851,17 +6856,15 @@
     <mergeCell ref="B238:E238"/>
     <mergeCell ref="B265:D265"/>
     <mergeCell ref="B247:D247"/>
-    <mergeCell ref="B348:D348"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B296:E296"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6905,7 +6908,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Child" vaccineIds="28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Child" vaccineIds="28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115, 107, 106, 198"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/main/webapp/schedules/Diphtheria.xlsx
+++ b/src/main/webapp/schedules/Diphtheria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3966257D-72B7-4F5F-A12F-A69FCA5764D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382B8EB-E53D-43F8-B988-92E510811B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="-15945" windowWidth="17805" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="299">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115, 107, 106, 198</t>
+  </si>
+  <si>
+    <t>3 months 4 days</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,6 +1333,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3502,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4473,8 +4479,8 @@
       <c r="D124" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E124" s="36" t="s">
-        <v>19</v>
+      <c r="E124" s="59" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
@@ -6824,15 +6830,17 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B348:D348"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B296:E296"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B208:D208"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="B102:E102"/>
     <mergeCell ref="B72:D72"/>
@@ -6849,17 +6857,15 @@
     <mergeCell ref="B238:E238"/>
     <mergeCell ref="B265:D265"/>
     <mergeCell ref="B247:D247"/>
-    <mergeCell ref="B348:D348"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B296:E296"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7223,7 +7229,7 @@
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="15 months" interval="6 months" grace="2 months"/&gt;</v>
+        <v xml:space="preserve">    &lt;valid age="15 months" interval="6 months" grace="3 months 4 days"/&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/main/webapp/schedules/Diphtheria.xlsx
+++ b/src/main/webapp/schedules/Diphtheria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenyon\Documents\GitHub\LoneStarVaccineForecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382B8EB-E53D-43F8-B988-92E510811B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8769E-BC27-4F52-A26A-1D4DCA095CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="-15945" windowWidth="17805" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="301">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -934,6 +934,12 @@
   </si>
   <si>
     <t>3 months 4 days</t>
+  </si>
+  <si>
+    <t>Grace for Interval</t>
+  </si>
+  <si>
+    <t>2 months 4 days</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,6 +1325,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,8 +1343,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,7 +1442,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>161147</xdr:rowOff>
     </xdr:to>
@@ -3508,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3517,8 +3526,8 @@
     <col min="1" max="1" width="1.5703125" style="27" customWidth="1"/>
     <col min="2" max="3" width="14.28515625" style="27" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="16" style="27" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="27" customWidth="1"/>
     <col min="8" max="10" width="14.28515625" style="27" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="27" customWidth="1"/>
@@ -3541,13 +3550,13 @@
       <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
@@ -3568,13 +3577,13 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="F4" s="34" t="s">
         <v>286</v>
       </c>
@@ -3586,9 +3595,9 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="55"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
@@ -3636,13 +3645,13 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="38" t="s">
         <v>46</v>
       </c>
@@ -3657,9 +3666,9 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
       <c r="F9" s="34" t="s">
         <v>12</v>
       </c>
@@ -3746,11 +3755,11 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
       <c r="F15" s="34" t="s">
         <v>280</v>
       </c>
@@ -3870,12 +3879,12 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="44"/>
@@ -3960,11 +3969,11 @@
       <c r="E71" s="36"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="31" t="s">
@@ -4057,12 +4066,12 @@
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="44"/>
@@ -4149,11 +4158,11 @@
       <c r="E91" s="36"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="54" t="s">
+      <c r="B92" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="31" t="s">
@@ -4246,12 +4255,12 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="54" t="s">
+      <c r="B102" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="44"/>
@@ -4338,11 +4347,11 @@
       <c r="E110" s="36"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="31" t="s">
@@ -4450,12 +4459,12 @@
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="44"/>
@@ -4468,6 +4477,9 @@
       <c r="E123" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="F123" s="53" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="45" t="s">
@@ -4479,8 +4491,11 @@
       <c r="D124" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E124" s="59" t="s">
+      <c r="E124" s="54" t="s">
         <v>298</v>
+      </c>
+      <c r="F124" s="60" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
@@ -4544,11 +4559,11 @@
       <c r="E130" s="36"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="54" t="s">
+      <c r="B131" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="31" t="s">
@@ -4641,12 +4656,12 @@
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="54" t="s">
+      <c r="B141" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C141" s="54"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="54"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="44"/>
@@ -4731,11 +4746,11 @@
       <c r="E149" s="36"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" s="54" t="s">
+      <c r="B150" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="54"/>
-      <c r="D150" s="54"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="55"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="31" t="s">
@@ -4828,12 +4843,12 @@
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B160" s="54" t="s">
+      <c r="B160" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C160" s="54"/>
-      <c r="D160" s="54"/>
-      <c r="E160" s="54"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="55"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="44"/>
@@ -4918,11 +4933,11 @@
       <c r="E168" s="36"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B169" s="54" t="s">
+      <c r="B169" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C169" s="54"/>
-      <c r="D169" s="54"/>
+      <c r="C169" s="55"/>
+      <c r="D169" s="55"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="31" t="s">
@@ -5013,12 +5028,12 @@
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B179" s="54" t="s">
+      <c r="B179" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C179" s="54"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="44"/>
@@ -5103,11 +5118,11 @@
       <c r="E187" s="36"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B188" s="54" t="s">
+      <c r="B188" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C188" s="54"/>
-      <c r="D188" s="54"/>
+      <c r="C188" s="55"/>
+      <c r="D188" s="55"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="31" t="s">
@@ -5213,12 +5228,12 @@
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B199" s="54" t="s">
+      <c r="B199" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C199" s="54"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
+      <c r="C199" s="55"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="44"/>
@@ -5305,11 +5320,11 @@
       <c r="E207" s="36"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B208" s="54" t="s">
+      <c r="B208" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C208" s="54"/>
-      <c r="D208" s="54"/>
+      <c r="C208" s="55"/>
+      <c r="D208" s="55"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" s="31" t="s">
@@ -5402,12 +5417,12 @@
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B218" s="54" t="s">
+      <c r="B218" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C218" s="54"/>
-      <c r="D218" s="54"/>
-      <c r="E218" s="54"/>
+      <c r="C218" s="55"/>
+      <c r="D218" s="55"/>
+      <c r="E218" s="55"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" s="44"/>
@@ -5504,11 +5519,11 @@
       <c r="E227" s="36"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B228" s="54" t="s">
+      <c r="B228" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C228" s="54"/>
-      <c r="D228" s="54"/>
+      <c r="C228" s="55"/>
+      <c r="D228" s="55"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" s="31" t="s">
@@ -5601,12 +5616,12 @@
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B238" s="54" t="s">
+      <c r="B238" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C238" s="54"/>
-      <c r="D238" s="54"/>
-      <c r="E238" s="54"/>
+      <c r="C238" s="55"/>
+      <c r="D238" s="55"/>
+      <c r="E238" s="55"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" s="44"/>
@@ -5691,11 +5706,11 @@
       <c r="E246" s="36"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B247" s="54" t="s">
+      <c r="B247" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C247" s="54"/>
-      <c r="D247" s="54"/>
+      <c r="C247" s="55"/>
+      <c r="D247" s="55"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B248" s="31" t="s">
@@ -5775,12 +5790,12 @@
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B256" s="54" t="s">
+      <c r="B256" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C256" s="54"/>
-      <c r="D256" s="54"/>
-      <c r="E256" s="54"/>
+      <c r="C256" s="55"/>
+      <c r="D256" s="55"/>
+      <c r="E256" s="55"/>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B257" s="44"/>
@@ -5863,11 +5878,11 @@
       <c r="E264" s="36"/>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B265" s="54" t="s">
+      <c r="B265" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C265" s="54"/>
-      <c r="D265" s="54"/>
+      <c r="C265" s="55"/>
+      <c r="D265" s="55"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B266" s="31" t="s">
@@ -5975,12 +5990,12 @@
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B276" s="54" t="s">
+      <c r="B276" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C276" s="54"/>
-      <c r="D276" s="54"/>
-      <c r="E276" s="54"/>
+      <c r="C276" s="55"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B277" s="44"/>
@@ -6065,11 +6080,11 @@
       <c r="E284" s="36"/>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B285" s="54" t="s">
+      <c r="B285" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C285" s="54"/>
-      <c r="D285" s="54"/>
+      <c r="C285" s="55"/>
+      <c r="D285" s="55"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B286" s="31" t="s">
@@ -6177,12 +6192,12 @@
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B296" s="54" t="s">
+      <c r="B296" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C296" s="54"/>
-      <c r="D296" s="54"/>
-      <c r="E296" s="54"/>
+      <c r="C296" s="55"/>
+      <c r="D296" s="55"/>
+      <c r="E296" s="55"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B297" s="44"/>
@@ -6269,11 +6284,11 @@
       <c r="E304" s="36"/>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B305" s="54" t="s">
+      <c r="B305" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C305" s="54"/>
-      <c r="D305" s="54"/>
+      <c r="C305" s="55"/>
+      <c r="D305" s="55"/>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B306" s="31" t="s">
@@ -6422,12 +6437,12 @@
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B319" s="54" t="s">
+      <c r="B319" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C319" s="54"/>
-      <c r="D319" s="54"/>
-      <c r="E319" s="54"/>
+      <c r="C319" s="55"/>
+      <c r="D319" s="55"/>
+      <c r="E319" s="55"/>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B320" s="44"/>
@@ -6510,11 +6525,11 @@
       <c r="E327" s="36"/>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B328" s="54" t="s">
+      <c r="B328" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C328" s="54"/>
-      <c r="D328" s="54"/>
+      <c r="C328" s="55"/>
+      <c r="D328" s="55"/>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B329" s="31" t="s">
@@ -6620,12 +6635,12 @@
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B339" s="54" t="s">
+      <c r="B339" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C339" s="54"/>
-      <c r="D339" s="54"/>
-      <c r="E339" s="54"/>
+      <c r="C339" s="55"/>
+      <c r="D339" s="55"/>
+      <c r="E339" s="55"/>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B340" s="44"/>
@@ -6708,11 +6723,11 @@
       <c r="E347" s="36"/>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B348" s="54" t="s">
+      <c r="B348" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C348" s="54"/>
-      <c r="D348" s="54"/>
+      <c r="C348" s="55"/>
+      <c r="D348" s="55"/>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B349" s="31" t="s">
@@ -6830,17 +6845,15 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="B348:D348"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B296:E296"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="B102:E102"/>
     <mergeCell ref="B72:D72"/>
@@ -6857,15 +6870,17 @@
     <mergeCell ref="B238:E238"/>
     <mergeCell ref="B265:D265"/>
     <mergeCell ref="B247:D247"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B348:D348"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B296:E296"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B208:D208"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6894,7 +6909,7 @@
   <dimension ref="A1:A220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7228,8 +7243,8 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;valid age="15 months" interval="6 months" grace="3 months 4 days"/&gt;</v>
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C124&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D124&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E124&amp;CHAR(34)&amp;" intervalGrace="&amp;CHAR(34)&amp;Schedules!F124&amp;CHAR(34)&amp;"/&gt;"</f>
+        <v xml:space="preserve">    &lt;valid age="15 months" interval="6 months" grace="3 months 4 days" intervalGrace="2 months 4 days"/&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -8266,10 +8281,10 @@
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="3" t="s">
         <v>76</v>
       </c>
@@ -9193,10 +9208,10 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="58"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="3" t="s">
         <v>76</v>
       </c>
@@ -9212,10 +9227,10 @@
       <c r="J28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="58" t="s">
+      <c r="K28" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="58"/>
+      <c r="L28" s="59"/>
       <c r="N28" s="6" t="s">
         <v>77</v>
       </c>

--- a/src/main/webapp/schedules/Diphtheria.xlsx
+++ b/src/main/webapp/schedules/Diphtheria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenyon\Documents\GitHub\LoneStarVaccineForecaster\src\main\webapp\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8769E-BC27-4F52-A26A-1D4DCA095CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8599D2E4-BB15-4D07-9D9D-D976593CB071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="6" r:id="rId1"/>
@@ -930,9 +930,6 @@
     <t>20, 110, 50, 120, 130, 22, 01, 120, 132, 115</t>
   </si>
   <si>
-    <t>28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115, 107, 106, 198</t>
-  </si>
-  <si>
     <t>3 months 4 days</t>
   </si>
   <si>
@@ -940,6 +937,9 @@
   </si>
   <si>
     <t>2 months 4 days</t>
+  </si>
+  <si>
+    <t>28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 107, 106, 198</t>
   </si>
 </sst>
 </file>
@@ -1328,6 +1328,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1341,9 +1344,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3517,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3550,13 +3550,13 @@
       <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
@@ -3577,13 +3577,13 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="58"/>
+      <c r="C4" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="59"/>
       <c r="F4" s="34" t="s">
         <v>286</v>
       </c>
@@ -3595,9 +3595,9 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="56"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
@@ -3645,13 +3645,13 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="38" t="s">
         <v>46</v>
       </c>
@@ -3666,9 +3666,9 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="F9" s="34" t="s">
         <v>12</v>
       </c>
@@ -3755,11 +3755,11 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="F15" s="34" t="s">
         <v>280</v>
       </c>
@@ -3879,12 +3879,12 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="44"/>
@@ -3969,11 +3969,11 @@
       <c r="E71" s="36"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="31" t="s">
@@ -4066,12 +4066,12 @@
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="44"/>
@@ -4158,11 +4158,11 @@
       <c r="E91" s="36"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="31" t="s">
@@ -4255,12 +4255,12 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="55" t="s">
+      <c r="B102" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="56"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="44"/>
@@ -4347,11 +4347,11 @@
       <c r="E110" s="36"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C111" s="55"/>
-      <c r="D111" s="55"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="31" t="s">
@@ -4459,12 +4459,12 @@
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="55" t="s">
+      <c r="B122" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="56"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="44"/>
@@ -4478,7 +4478,7 @@
         <v>27</v>
       </c>
       <c r="F123" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
@@ -4492,10 +4492,10 @@
         <v>52</v>
       </c>
       <c r="E124" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="F124" s="60" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="F124" s="55" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
@@ -4559,11 +4559,11 @@
       <c r="E130" s="36"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="55" t="s">
+      <c r="B131" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="55"/>
-      <c r="D131" s="55"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="31" t="s">
@@ -4656,12 +4656,12 @@
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="55" t="s">
+      <c r="B141" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C141" s="55"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="56"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="44"/>
@@ -4746,11 +4746,11 @@
       <c r="E149" s="36"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" s="55" t="s">
+      <c r="B150" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="55"/>
-      <c r="D150" s="55"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="31" t="s">
@@ -4843,12 +4843,12 @@
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B160" s="55" t="s">
+      <c r="B160" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C160" s="55"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="55"/>
+      <c r="C160" s="56"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="56"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="44"/>
@@ -4933,11 +4933,11 @@
       <c r="E168" s="36"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B169" s="55" t="s">
+      <c r="B169" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
+      <c r="C169" s="56"/>
+      <c r="D169" s="56"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="31" t="s">
@@ -5028,12 +5028,12 @@
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B179" s="55" t="s">
+      <c r="B179" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C179" s="55"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="44"/>
@@ -5118,11 +5118,11 @@
       <c r="E187" s="36"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B188" s="55" t="s">
+      <c r="B188" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C188" s="55"/>
-      <c r="D188" s="55"/>
+      <c r="C188" s="56"/>
+      <c r="D188" s="56"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="31" t="s">
@@ -5228,12 +5228,12 @@
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B199" s="55" t="s">
+      <c r="B199" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C199" s="55"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
+      <c r="C199" s="56"/>
+      <c r="D199" s="56"/>
+      <c r="E199" s="56"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="44"/>
@@ -5320,11 +5320,11 @@
       <c r="E207" s="36"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B208" s="55" t="s">
+      <c r="B208" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C208" s="55"/>
-      <c r="D208" s="55"/>
+      <c r="C208" s="56"/>
+      <c r="D208" s="56"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" s="31" t="s">
@@ -5417,12 +5417,12 @@
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B218" s="55" t="s">
+      <c r="B218" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C218" s="55"/>
-      <c r="D218" s="55"/>
-      <c r="E218" s="55"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" s="44"/>
@@ -5519,11 +5519,11 @@
       <c r="E227" s="36"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B228" s="55" t="s">
+      <c r="B228" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C228" s="55"/>
-      <c r="D228" s="55"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="56"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" s="31" t="s">
@@ -5616,12 +5616,12 @@
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B238" s="55" t="s">
+      <c r="B238" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C238" s="55"/>
-      <c r="D238" s="55"/>
-      <c r="E238" s="55"/>
+      <c r="C238" s="56"/>
+      <c r="D238" s="56"/>
+      <c r="E238" s="56"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" s="44"/>
@@ -5706,11 +5706,11 @@
       <c r="E246" s="36"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B247" s="55" t="s">
+      <c r="B247" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C247" s="55"/>
-      <c r="D247" s="55"/>
+      <c r="C247" s="56"/>
+      <c r="D247" s="56"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B248" s="31" t="s">
@@ -5790,12 +5790,12 @@
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B256" s="55" t="s">
+      <c r="B256" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C256" s="55"/>
-      <c r="D256" s="55"/>
-      <c r="E256" s="55"/>
+      <c r="C256" s="56"/>
+      <c r="D256" s="56"/>
+      <c r="E256" s="56"/>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B257" s="44"/>
@@ -5878,11 +5878,11 @@
       <c r="E264" s="36"/>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B265" s="55" t="s">
+      <c r="B265" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C265" s="55"/>
-      <c r="D265" s="55"/>
+      <c r="C265" s="56"/>
+      <c r="D265" s="56"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B266" s="31" t="s">
@@ -5990,12 +5990,12 @@
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B276" s="55" t="s">
+      <c r="B276" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C276" s="55"/>
-      <c r="D276" s="55"/>
-      <c r="E276" s="55"/>
+      <c r="C276" s="56"/>
+      <c r="D276" s="56"/>
+      <c r="E276" s="56"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B277" s="44"/>
@@ -6080,11 +6080,11 @@
       <c r="E284" s="36"/>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B285" s="55" t="s">
+      <c r="B285" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C285" s="55"/>
-      <c r="D285" s="55"/>
+      <c r="C285" s="56"/>
+      <c r="D285" s="56"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B286" s="31" t="s">
@@ -6192,12 +6192,12 @@
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B296" s="55" t="s">
+      <c r="B296" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C296" s="55"/>
-      <c r="D296" s="55"/>
-      <c r="E296" s="55"/>
+      <c r="C296" s="56"/>
+      <c r="D296" s="56"/>
+      <c r="E296" s="56"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B297" s="44"/>
@@ -6284,11 +6284,11 @@
       <c r="E304" s="36"/>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B305" s="55" t="s">
+      <c r="B305" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C305" s="55"/>
-      <c r="D305" s="55"/>
+      <c r="C305" s="56"/>
+      <c r="D305" s="56"/>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B306" s="31" t="s">
@@ -6437,12 +6437,12 @@
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B319" s="55" t="s">
+      <c r="B319" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C319" s="55"/>
-      <c r="D319" s="55"/>
-      <c r="E319" s="55"/>
+      <c r="C319" s="56"/>
+      <c r="D319" s="56"/>
+      <c r="E319" s="56"/>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B320" s="44"/>
@@ -6525,11 +6525,11 @@
       <c r="E327" s="36"/>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B328" s="55" t="s">
+      <c r="B328" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C328" s="55"/>
-      <c r="D328" s="55"/>
+      <c r="C328" s="56"/>
+      <c r="D328" s="56"/>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B329" s="31" t="s">
@@ -6635,12 +6635,12 @@
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B339" s="55" t="s">
+      <c r="B339" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C339" s="55"/>
-      <c r="D339" s="55"/>
-      <c r="E339" s="55"/>
+      <c r="C339" s="56"/>
+      <c r="D339" s="56"/>
+      <c r="E339" s="56"/>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B340" s="44"/>
@@ -6723,11 +6723,11 @@
       <c r="E347" s="36"/>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B348" s="55" t="s">
+      <c r="B348" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C348" s="55"/>
-      <c r="D348" s="55"/>
+      <c r="C348" s="56"/>
+      <c r="D348" s="56"/>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B349" s="31" t="s">
@@ -6845,15 +6845,17 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B348:D348"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B296:E296"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B208:D208"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="B102:E102"/>
     <mergeCell ref="B72:D72"/>
@@ -6870,17 +6872,15 @@
     <mergeCell ref="B238:E238"/>
     <mergeCell ref="B265:D265"/>
     <mergeCell ref="B247:D247"/>
-    <mergeCell ref="B348:D348"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B296:E296"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6908,8 +6908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6926,7 +6926,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Child" vaccineIds="28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 115, 107, 106, 198"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Child" vaccineIds="28, 20, 110, 50, 120, 130, 22, 01, 102, 120, 132, 107, 106, 198"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -8281,10 +8281,10 @@
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="3" t="s">
         <v>76</v>
       </c>
@@ -9208,10 +9208,10 @@
       <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="3" t="s">
         <v>76</v>
       </c>
@@ -9227,10 +9227,10 @@
       <c r="J28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="59"/>
+      <c r="L28" s="60"/>
       <c r="N28" s="6" t="s">
         <v>77</v>
       </c>
